--- a/tabular/eve/ecv-cyclo-refseqs-side-data.xlsx
+++ b/tabular/eve/ecv-cyclo-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2EC5A8-D66A-E442-B20C-57A72B2E0797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE477A97-0F0A-3546-805D-6A2724CC057D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="1900" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Cyclovirus</t>
   </si>
   <si>
-    <t>CRESS</t>
-  </si>
-  <si>
     <t>sequenceID</t>
   </si>
   <si>
@@ -60,75 +57,12 @@
     <t>ecv-cyclo.1-varroa-con</t>
   </si>
   <si>
-    <t>ecv-cress.1-eptatretus-con</t>
-  </si>
-  <si>
-    <t>ecv-cress.2-loxosceles-con</t>
-  </si>
-  <si>
-    <t>ecv-cress.3-modiolus-con</t>
-  </si>
-  <si>
-    <t>ecv-cress.5-neolamprologus-con</t>
-  </si>
-  <si>
-    <t>ecv-cress.6-parhyale-con</t>
-  </si>
-  <si>
-    <t>ecv-cress.7-salmo-con</t>
-  </si>
-  <si>
-    <t>ecv-cress.8-tropileilaps-con</t>
-  </si>
-  <si>
     <t>REF_ECV_Varroa</t>
   </si>
   <si>
-    <t>REF_ECV_Eptatretus</t>
-  </si>
-  <si>
-    <t>REF_ECV_Loxosceles</t>
-  </si>
-  <si>
-    <t>REF_ECV_Modiolus</t>
-  </si>
-  <si>
-    <t>REF_ECV_Neolamprologus</t>
-  </si>
-  <si>
-    <t>REF_ECV_Parhyale</t>
-  </si>
-  <si>
-    <t>REF_ECV_Salmo</t>
-  </si>
-  <si>
-    <t>REF_ECV_Tropileilaps</t>
-  </si>
-  <si>
     <t>Endogenous circoviral element cyclo.1-varroa consensus sequence</t>
   </si>
   <si>
-    <t>Endogenous circoviral element cress.1-eptatretus consensus sequence</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.2-loxosceles consensus sequence</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.3-modiolus consensus sequence</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.5-neolamprologus consensus sequence</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.6-parhyale consensus sequence</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.7-salmo consensus sequence</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.8-tropileilaps consensus sequence</t>
-  </si>
-  <si>
     <t>host_group_taxlevel</t>
   </si>
   <si>
@@ -151,33 +85,6 @@
   </si>
   <si>
     <t>numeric_id</t>
-  </si>
-  <si>
-    <t>ecv-cress.4-mytilus-con</t>
-  </si>
-  <si>
-    <t>REF_ECV_Mytilus</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.4-mytilus consensus sequence</t>
-  </si>
-  <si>
-    <t>ecv-cress.9-conus-con</t>
-  </si>
-  <si>
-    <t>REF_ECV_Conus</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.9-conus consensus sequence</t>
-  </si>
-  <si>
-    <t>REF_ECV_Taenia</t>
-  </si>
-  <si>
-    <t>ecv-cress.10-taenia-con</t>
-  </si>
-  <si>
-    <t>Endogenous circoviral element cress.10-taenia consensus sequence</t>
   </si>
 </sst>
 </file>
@@ -1442,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1465,10 +1372,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1477,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1486,39 +1393,39 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -1543,400 +1450,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>5</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>9</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M12">
-    <sortCondition ref="E2:E12"/>
-    <sortCondition ref="F2:F12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M2">
+    <sortCondition ref="E2"/>
+    <sortCondition ref="F2"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/eve/ecv-cyclo-refseqs-side-data.xlsx
+++ b/tabular/eve/ecv-cyclo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE477A97-0F0A-3546-805D-6A2724CC057D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F68373-0A37-9346-B0D3-ACBEA05647C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="1900" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>ecv-cyclo.1-varroa-con</t>
   </si>
   <si>
-    <t>REF_ECV_Varroa</t>
-  </si>
-  <si>
     <t>Endogenous circoviral element cyclo.1-varroa consensus sequence</t>
   </si>
   <si>
@@ -85,6 +82,21 @@
   </si>
   <si>
     <t>numeric_id</t>
+  </si>
+  <si>
+    <t>ecv-cyclo.2-pseudomyrmex</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>REF_ECV-Cyclo.1-Varroa</t>
+  </si>
+  <si>
+    <t>Endogenous circoviral element cyclo.2-pseudomyrmex consensus sequence</t>
+  </si>
+  <si>
+    <t>REF_ECV-Cyclo.2-Pseudomyrmex</t>
   </si>
 </sst>
 </file>
@@ -1349,21 +1361,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="85.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35" style="2" customWidth="1"/>
+    <col min="5" max="5" width="85.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="22.1640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" style="2" customWidth="1"/>
@@ -1375,65 +1388,65 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3">
         <v>1</v>
       </c>
@@ -1447,13 +1460,52 @@
         <v>1</v>
       </c>
       <c r="M2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M2">
-    <sortCondition ref="E2"/>
     <sortCondition ref="F2"/>
+    <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/eve/ecv-cyclo-refseqs-side-data.xlsx
+++ b/tabular/eve/ecv-cyclo-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F68373-0A37-9346-B0D3-ACBEA05647C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E37DA8-2724-484B-9CD3-C24B38C06B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="1900" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
